--- a/final-paper-rubric.xlsx
+++ b/final-paper-rubric.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ebeam/Dropbox/UVM-HCOL185-Fall2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ebeam/Dropbox/UVM-HCOL185-Fall2022/HCOL185.f22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EF8C34-65AF-D846-9035-00757494CE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5B415F-2D01-2040-9868-869129195ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{8B15A90D-983C-7843-97AB-41D30CA183A8}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{8B15A90D-983C-7843-97AB-41D30CA183A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>Excellent (100%)</t>
   </si>
@@ -272,9 +272,6 @@
     <t>2 elements missing, many key details missing, or largely inaccurate interpretation of results</t>
   </si>
   <si>
-    <t>HCOL 185 FINAL PAPER RUBRIC (114 points)</t>
-  </si>
-  <si>
     <t>Few grammatical and typographical errors</t>
   </si>
   <si>
@@ -287,7 +284,43 @@
     <t>RESEARCH PAPER (72 POINTS)</t>
   </si>
   <si>
-    <t>RESEARCH PAPER (72 POINTS)rap</t>
+    <t>Rough draft</t>
+  </si>
+  <si>
+    <t>Peer review</t>
+  </si>
+  <si>
+    <t>Rough draft submitted with written content in all but two sections. Less than 1000w long</t>
+  </si>
+  <si>
+    <t>Rough draft submitted with written content missing from 2+ sections. At least 1000w long</t>
+  </si>
+  <si>
+    <t>Thoughtful peer review completed that answers questions with reasonable effort and provides constructive suggestions, submitted timely</t>
+  </si>
+  <si>
+    <t>Thoughtful peer review completed that answers questions with reasonable effort, but lacking constructive suggestions</t>
+  </si>
+  <si>
+    <t>Thoughtful peer review submitted 1–2 days late, or completed timely but with limited reflection and suggestions</t>
+  </si>
+  <si>
+    <t>Thoughtful peer review submitted 3+ days late, or completed earlier but extremely limited in review</t>
+  </si>
+  <si>
+    <t>HCOL 185 FINAL PAPER RUBRIC (122 points)</t>
+  </si>
+  <si>
+    <t>PAPER PREP (8 POINTS)</t>
+  </si>
+  <si>
+    <t>Introduction includes all four elements as described, meets outside sources requirement (2 peer-reviewed, for 3 total). Introduction presents well-supported, cohesive narrative that motivates research question using sources and summarizes paper contributions</t>
+  </si>
+  <si>
+    <t>Rough draft submitted with written content in all sections (outline not sufficient). At least 1500w long, with at least 2 tables/figures</t>
+  </si>
+  <si>
+    <t>Rough draft submitted with written content in all but one section or up to one table/figure missing. At least 1500w long</t>
   </si>
 </sst>
 </file>
@@ -297,7 +330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -323,13 +356,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF2F5597"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -416,7 +442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -427,9 +453,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -453,9 +476,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -464,25 +484,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -811,409 +831,445 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BBCA2B-B749-1A43-823F-DFC695A12478}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="24.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="6"/>
+    <col min="8" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="A1" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
+      <c r="A3" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="144" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:8" ht="160" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>6</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="14" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="160" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>6</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>6</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="144" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>12</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="112" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <v>6</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="128" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>6</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="80" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="13">
         <v>6</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="13">
         <v>6</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="80" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="15">
         <v>8</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="15">
         <v>4</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="15">
+        <v>24</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="15">
+        <v>4</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="15">
+        <v>4</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="18">
-        <v>4</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="1:7" ht="96" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="18">
-        <v>24</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
-    </row>
-    <row r="19" spans="1:7" ht="80" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B22" s="15">
         <v>6</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C22" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D22" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E22" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F22" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="128" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+    <row r="23" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B23" s="15">
         <v>12</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C23" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D23" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E23" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F23" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="8"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="8"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E27" s="3"/>
@@ -1224,37 +1280,37 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C29" s="7"/>
+      <c r="C29" s="6"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C30" s="7"/>
+      <c r="C30" s="6"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C31" s="7"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="9"/>
+      <c r="B32" s="8"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="8"/>
+      <c r="B33" s="7"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="8"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="8"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="8"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="3"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="8"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="3"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
@@ -1266,11 +1322,12 @@
       <c r="G39" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
